--- a/Code/Results/Cases/Case_0_85/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_85/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.835755621574919</v>
+        <v>3.847426542446107</v>
       </c>
       <c r="D2">
-        <v>5.776437582735046</v>
+        <v>7.765152263472157</v>
       </c>
       <c r="E2">
-        <v>6.93691926866788</v>
+        <v>11.62671632518023</v>
       </c>
       <c r="F2">
-        <v>39.14498862739352</v>
+        <v>38.86257489639515</v>
       </c>
       <c r="G2">
-        <v>61.22118637164474</v>
+        <v>48.7376925318184</v>
       </c>
       <c r="H2">
-        <v>15.78943428042895</v>
+        <v>18.14970985497524</v>
       </c>
       <c r="I2">
-        <v>28.81504356529852</v>
+        <v>27.90380081841142</v>
       </c>
       <c r="J2">
-        <v>4.797314892830662</v>
+        <v>9.205165647024531</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>34.03230107487708</v>
+        <v>26.52282352813911</v>
       </c>
       <c r="N2">
-        <v>18.53927701432342</v>
+        <v>17.22607332303565</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.907163729195014</v>
+        <v>3.865299073906837</v>
       </c>
       <c r="D3">
-        <v>5.631996930765265</v>
+        <v>7.734552171093203</v>
       </c>
       <c r="E3">
-        <v>6.990486534065448</v>
+        <v>11.65696302439233</v>
       </c>
       <c r="F3">
-        <v>36.80585078056382</v>
+        <v>38.52773991519107</v>
       </c>
       <c r="G3">
-        <v>57.02529608336708</v>
+        <v>47.75889101831749</v>
       </c>
       <c r="H3">
-        <v>14.98620242606681</v>
+        <v>18.07413768497346</v>
       </c>
       <c r="I3">
-        <v>27.06428871917089</v>
+        <v>27.62450732682788</v>
       </c>
       <c r="J3">
-        <v>4.9234288280382</v>
+        <v>9.246327743049051</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>31.69952739028682</v>
+        <v>25.76207592193492</v>
       </c>
       <c r="N3">
-        <v>17.80675234117264</v>
+        <v>16.99444348550463</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.950912098632093</v>
+        <v>3.876701577950428</v>
       </c>
       <c r="D4">
-        <v>5.542622050384607</v>
+        <v>7.715548064743717</v>
       </c>
       <c r="E4">
-        <v>7.025340120031717</v>
+        <v>11.67675194266841</v>
       </c>
       <c r="F4">
-        <v>35.35627410230138</v>
+        <v>38.33549911568038</v>
       </c>
       <c r="G4">
-        <v>54.38447710841218</v>
+        <v>47.16878193939282</v>
       </c>
       <c r="H4">
-        <v>14.49447808781506</v>
+        <v>18.03334448388105</v>
       </c>
       <c r="I4">
-        <v>25.97481457695195</v>
+        <v>27.46193935743205</v>
       </c>
       <c r="J4">
-        <v>5.002087142618777</v>
+        <v>9.272768733370652</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>30.18689467479422</v>
+        <v>25.28563865001515</v>
       </c>
       <c r="N4">
-        <v>17.34526839326248</v>
+        <v>16.85276405349676</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.968751064916107</v>
+        <v>3.8814565998973</v>
       </c>
       <c r="D5">
-        <v>5.506017956351826</v>
+        <v>7.707750771790247</v>
       </c>
       <c r="E5">
-        <v>7.040042648404207</v>
+        <v>11.68512305768952</v>
       </c>
       <c r="F5">
-        <v>34.76249781120926</v>
+        <v>38.26058302649887</v>
       </c>
       <c r="G5">
-        <v>53.2921798866695</v>
+        <v>46.931412010912</v>
       </c>
       <c r="H5">
-        <v>14.29457558228381</v>
+        <v>18.01813814095561</v>
       </c>
       <c r="I5">
-        <v>25.52740048375231</v>
+        <v>27.39799860744797</v>
       </c>
       <c r="J5">
-        <v>5.034481722957147</v>
+        <v>9.283838294599605</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>29.55003447830614</v>
+        <v>25.08941096158649</v>
       </c>
       <c r="N5">
-        <v>17.15450715309656</v>
+        <v>16.79522959372392</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.971714847748764</v>
+        <v>3.882252733083782</v>
       </c>
       <c r="D6">
-        <v>5.49992862194537</v>
+        <v>7.706452873784951</v>
       </c>
       <c r="E6">
-        <v>7.042514312316434</v>
+        <v>11.68653164050832</v>
       </c>
       <c r="F6">
-        <v>34.6637287539582</v>
+        <v>38.24835183691386</v>
       </c>
       <c r="G6">
-        <v>53.10983802295686</v>
+        <v>46.89219510602556</v>
       </c>
       <c r="H6">
-        <v>14.26141508999045</v>
+        <v>18.01569889624313</v>
       </c>
       <c r="I6">
-        <v>25.45290819548277</v>
+        <v>27.38752239544769</v>
       </c>
       <c r="J6">
-        <v>5.039882299198286</v>
+        <v>9.285694215207968</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>29.44304200201109</v>
+        <v>25.05671044475903</v>
       </c>
       <c r="N6">
-        <v>17.12267585273139</v>
+        <v>16.78569007922955</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.951152592010794</v>
+        <v>3.876765266085967</v>
       </c>
       <c r="D7">
-        <v>5.542129145615269</v>
+        <v>7.715443120573864</v>
       </c>
       <c r="E7">
-        <v>7.025536374176039</v>
+        <v>11.67686359438621</v>
       </c>
       <c r="F7">
-        <v>35.34827810951766</v>
+        <v>38.33447482670859</v>
       </c>
       <c r="G7">
-        <v>54.36981103844197</v>
+        <v>47.16556763173901</v>
       </c>
       <c r="H7">
-        <v>14.49178000843192</v>
+        <v>18.03313365994642</v>
       </c>
       <c r="I7">
-        <v>25.96879417500341</v>
+        <v>27.4610676084716</v>
       </c>
       <c r="J7">
-        <v>5.002522606552875</v>
+        <v>9.272916826855578</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>30.17838888526426</v>
+        <v>25.28300028622513</v>
       </c>
       <c r="N7">
-        <v>17.3427063206515</v>
+        <v>16.85198722390181</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.860419765298704</v>
+        <v>3.85350038473509</v>
       </c>
       <c r="D8">
-        <v>5.726769200929438</v>
+        <v>7.7546468235126</v>
       </c>
       <c r="E8">
-        <v>6.954985509675297</v>
+        <v>11.63689325325453</v>
       </c>
       <c r="F8">
-        <v>38.34134000125903</v>
+        <v>38.74439569356271</v>
       </c>
       <c r="G8">
-        <v>59.78779349077189</v>
+        <v>48.39816583971859</v>
       </c>
       <c r="H8">
-        <v>15.51222621224011</v>
+        <v>18.12249334538638</v>
       </c>
       <c r="I8">
-        <v>28.21447261642969</v>
+        <v>27.80568941791277</v>
       </c>
       <c r="J8">
-        <v>4.840565817022184</v>
+        <v>9.219116741396929</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>33.24446544315754</v>
+        <v>26.26261252018271</v>
       </c>
       <c r="N8">
-        <v>18.28926839745242</v>
+        <v>17.14613354065639</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.679887799794161</v>
+        <v>3.81125122707112</v>
       </c>
       <c r="D9">
-        <v>6.084219231210255</v>
+        <v>7.829762322439189</v>
       </c>
       <c r="E9">
-        <v>6.831914511240848</v>
+        <v>11.56813135813041</v>
       </c>
       <c r="F9">
-        <v>44.10214546088908</v>
+        <v>39.65085512645666</v>
       </c>
       <c r="G9">
-        <v>70.01701752000477</v>
+        <v>50.88536236269148</v>
       </c>
       <c r="H9">
-        <v>17.52315499072349</v>
+        <v>18.34182554825907</v>
       </c>
       <c r="I9">
-        <v>32.75118067396313</v>
+        <v>28.54918068861758</v>
       </c>
       <c r="J9">
-        <v>4.531001863857491</v>
+        <v>9.122825203310796</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>38.63270000279174</v>
+        <v>28.0985840006099</v>
       </c>
       <c r="N9">
-        <v>20.04354628373042</v>
+        <v>17.7244371696016</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.542643631495012</v>
+        <v>3.782226778772111</v>
       </c>
       <c r="D10">
-        <v>6.345863206565602</v>
+        <v>7.883806399295958</v>
       </c>
       <c r="E10">
-        <v>6.750335497234341</v>
+        <v>11.52342228563093</v>
       </c>
       <c r="F10">
-        <v>48.52073076046804</v>
+        <v>40.37446068086445</v>
       </c>
       <c r="G10">
-        <v>77.29573168973199</v>
+        <v>52.73395321086316</v>
       </c>
       <c r="H10">
-        <v>19.27172108890366</v>
+        <v>18.52917757689767</v>
       </c>
       <c r="I10">
-        <v>36.20396958716174</v>
+        <v>29.13224124394181</v>
       </c>
       <c r="J10">
-        <v>4.305772935041902</v>
+        <v>9.05762114929948</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>42.23090932210311</v>
+        <v>29.38230950124097</v>
       </c>
       <c r="N10">
-        <v>21.26040437625043</v>
+        <v>18.14650806683618</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1.478371710100892</v>
+        <v>3.769451782482995</v>
       </c>
       <c r="D11">
-        <v>6.465335832473913</v>
+        <v>7.908129411665392</v>
       </c>
       <c r="E11">
-        <v>6.715019733663576</v>
+        <v>11.5043330132581</v>
       </c>
       <c r="F11">
-        <v>50.53573600836739</v>
+        <v>40.71499308633344</v>
       </c>
       <c r="G11">
-        <v>80.55921595293798</v>
+        <v>53.5751685926453</v>
       </c>
       <c r="H11">
-        <v>20.07716203164721</v>
+        <v>18.61991492488005</v>
       </c>
       <c r="I11">
-        <v>37.74735039185305</v>
+        <v>29.4044655778783</v>
       </c>
       <c r="J11">
-        <v>4.203070176759027</v>
+        <v>9.029145541787534</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>43.79480272638908</v>
+        <v>29.94973545531434</v>
       </c>
       <c r="N11">
-        <v>21.79684690922308</v>
+        <v>18.33714821247215</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.453683269500994</v>
+        <v>3.764675142039299</v>
       </c>
       <c r="D12">
-        <v>6.510718810516904</v>
+        <v>7.917300886550517</v>
       </c>
       <c r="E12">
-        <v>6.70189295316668</v>
+        <v>11.49728311301275</v>
       </c>
       <c r="F12">
-        <v>51.29695148934247</v>
+        <v>40.84547289195646</v>
       </c>
       <c r="G12">
-        <v>81.79002493416967</v>
+        <v>53.8934099665806</v>
       </c>
       <c r="H12">
-        <v>20.38110836085677</v>
+        <v>18.65504865922889</v>
       </c>
       <c r="I12">
-        <v>38.32876203372534</v>
+        <v>29.50846567063181</v>
       </c>
       <c r="J12">
-        <v>4.164072253005916</v>
+        <v>9.018531913501906</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>44.37703695131962</v>
+        <v>30.16204878902438</v>
       </c>
       <c r="N12">
-        <v>21.99743316878041</v>
+        <v>18.40908163883411</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1.459017475960463</v>
+        <v>3.76570117521267</v>
       </c>
       <c r="D13">
-        <v>6.500937026903224</v>
+        <v>7.915327408649891</v>
       </c>
       <c r="E13">
-        <v>6.704709274317438</v>
+        <v>11.49879349648504</v>
       </c>
       <c r="F13">
-        <v>51.13307070121039</v>
+        <v>40.81730551404226</v>
       </c>
       <c r="G13">
-        <v>81.52513630933953</v>
+        <v>53.82489009671478</v>
       </c>
       <c r="H13">
-        <v>20.31568673256016</v>
+        <v>18.64744789851304</v>
       </c>
       <c r="I13">
-        <v>38.20366312360915</v>
+        <v>29.4860281585482</v>
       </c>
       <c r="J13">
-        <v>4.172477163118061</v>
+        <v>9.020810228475607</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>44.25207710240291</v>
+        <v>30.11643976601178</v>
       </c>
       <c r="N13">
-        <v>21.95434806711601</v>
+        <v>18.39360192053931</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.476348141744722</v>
+        <v>3.769057587002664</v>
       </c>
       <c r="D14">
-        <v>6.469066166521027</v>
+        <v>7.908884746879753</v>
       </c>
       <c r="E14">
-        <v>6.713934915746974</v>
+        <v>11.50374943519076</v>
       </c>
       <c r="F14">
-        <v>50.598390920833</v>
+        <v>40.72569774242022</v>
       </c>
       <c r="G14">
-        <v>80.66056337771037</v>
+        <v>53.60135862686697</v>
       </c>
       <c r="H14">
-        <v>20.1021860905354</v>
+        <v>18.62279001081592</v>
       </c>
       <c r="I14">
-        <v>37.79523842618439</v>
+        <v>29.41300391785655</v>
       </c>
       <c r="J14">
-        <v>4.199864383029825</v>
+        <v>9.02826896206612</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>43.84290022817033</v>
+        <v>29.96725483992995</v>
       </c>
       <c r="N14">
-        <v>21.81340086292786</v>
+        <v>18.34307173396384</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1.486915268707266</v>
+        <v>3.771121408025921</v>
       </c>
       <c r="D15">
-        <v>6.449565399475163</v>
+        <v>7.904933292195881</v>
       </c>
       <c r="E15">
-        <v>6.719617626835352</v>
+        <v>11.50680835028351</v>
       </c>
       <c r="F15">
-        <v>50.27068396717357</v>
+        <v>40.66978106970275</v>
       </c>
       <c r="G15">
-        <v>80.13039871320122</v>
+        <v>53.46438888080574</v>
       </c>
       <c r="H15">
-        <v>19.97128836547202</v>
+        <v>18.6077864829615</v>
       </c>
       <c r="I15">
-        <v>37.54470145280354</v>
+        <v>29.36839087939</v>
       </c>
       <c r="J15">
-        <v>4.216623637209355</v>
+        <v>9.03285968903916</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>43.59098475458973</v>
+        <v>29.87553655921888</v>
       </c>
       <c r="N15">
-        <v>21.72673186746713</v>
+        <v>18.31208515198397</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1.546799987689057</v>
+        <v>3.783070221332039</v>
       </c>
       <c r="D16">
-        <v>6.33807049571546</v>
+        <v>7.882211438394532</v>
       </c>
       <c r="E16">
-        <v>6.752678624909053</v>
+        <v>11.5246948790277</v>
       </c>
       <c r="F16">
-        <v>48.38872455178966</v>
+        <v>40.35242570115866</v>
       </c>
       <c r="G16">
-        <v>77.08164468805376</v>
+        <v>52.67895325069766</v>
       </c>
       <c r="H16">
-        <v>19.21890892962805</v>
+        <v>18.52335697924239</v>
       </c>
       <c r="I16">
-        <v>36.10262844451742</v>
+        <v>29.11458367338309</v>
       </c>
       <c r="J16">
-        <v>4.312474034969319</v>
+        <v>9.059505870679772</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>42.12727915406533</v>
+        <v>29.34487818282042</v>
       </c>
       <c r="N16">
-        <v>21.22499379258752</v>
+        <v>18.13401652821288</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1.583010249031897</v>
+        <v>3.790509703253218</v>
       </c>
       <c r="D17">
-        <v>6.269835021218201</v>
+        <v>7.868204200484477</v>
       </c>
       <c r="E17">
-        <v>6.77341238392146</v>
+        <v>11.53598702334394</v>
       </c>
       <c r="F17">
-        <v>47.22970452513929</v>
+        <v>40.16057381557708</v>
       </c>
       <c r="G17">
-        <v>75.20031016316604</v>
+        <v>52.19693248455497</v>
       </c>
       <c r="H17">
-        <v>18.75495478349165</v>
+        <v>18.4729605754283</v>
       </c>
       <c r="I17">
-        <v>35.2115442840419</v>
+        <v>28.96060712512386</v>
       </c>
       <c r="J17">
-        <v>4.371165195559806</v>
+        <v>9.076155442138194</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>41.21099790844779</v>
+        <v>29.01496507623512</v>
       </c>
       <c r="N17">
-        <v>20.91273718199584</v>
+        <v>18.0243835574159</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1.603670317488571</v>
+        <v>3.794829054448984</v>
       </c>
       <c r="D18">
-        <v>6.230624349202751</v>
+        <v>7.860123043624467</v>
       </c>
       <c r="E18">
-        <v>6.785507614272356</v>
+        <v>11.54259958769612</v>
       </c>
       <c r="F18">
-        <v>46.56108135238787</v>
+        <v>40.05130159451268</v>
       </c>
       <c r="G18">
-        <v>74.1135969874518</v>
+        <v>51.91973334395085</v>
       </c>
       <c r="H18">
-        <v>18.48708414279998</v>
+        <v>18.44449376281384</v>
       </c>
       <c r="I18">
-        <v>34.69638136625537</v>
+        <v>28.87270706201546</v>
       </c>
       <c r="J18">
-        <v>4.404904638500273</v>
+        <v>9.085843536274671</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>40.67707578231726</v>
+        <v>28.82365979866304</v>
       </c>
       <c r="N18">
-        <v>20.73152860464359</v>
+        <v>17.96120095217229</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1.610639116975487</v>
+        <v>3.796298463050982</v>
       </c>
       <c r="D19">
-        <v>6.217352579187558</v>
+        <v>7.85738272818694</v>
       </c>
       <c r="E19">
-        <v>6.789632332184378</v>
+        <v>11.54485871516476</v>
       </c>
       <c r="F19">
-        <v>46.33432760870061</v>
+        <v>40.01449186234611</v>
       </c>
       <c r="G19">
-        <v>73.74481196261837</v>
+        <v>51.82589736957328</v>
       </c>
       <c r="H19">
-        <v>18.39620138077496</v>
+        <v>18.43494522317988</v>
       </c>
       <c r="I19">
-        <v>34.52147940746151</v>
+        <v>28.84306223311318</v>
       </c>
       <c r="J19">
-        <v>4.416327103549404</v>
+        <v>9.089142976274717</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>40.49509932132608</v>
+        <v>28.75862700736965</v>
       </c>
       <c r="N19">
-        <v>20.66990174403564</v>
+        <v>17.93978892834078</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1.579173470983598</v>
+        <v>3.789713585329538</v>
       </c>
       <c r="D20">
-        <v>6.277094532752569</v>
+        <v>7.869697847703719</v>
       </c>
       <c r="E20">
-        <v>6.771187754069643</v>
+        <v>11.53477278791002</v>
       </c>
       <c r="F20">
-        <v>47.35328273591947</v>
+        <v>40.18088618167891</v>
       </c>
       <c r="G20">
-        <v>75.40104752724341</v>
+        <v>52.24824219326171</v>
       </c>
       <c r="H20">
-        <v>18.80444582357004</v>
+        <v>18.47827168574768</v>
       </c>
       <c r="I20">
-        <v>35.30666855936104</v>
+        <v>28.97693020376522</v>
       </c>
       <c r="J20">
-        <v>4.364919780802212</v>
+        <v>9.074371514069512</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>41.30924843259584</v>
+        <v>29.05024645523181</v>
       </c>
       <c r="N20">
-        <v>20.94614448061017</v>
+        <v>18.03606752804177</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1.471267969369866</v>
+        <v>3.768070077704312</v>
       </c>
       <c r="D21">
-        <v>6.478422853552197</v>
+        <v>7.910778186256096</v>
       </c>
       <c r="E21">
-        <v>6.711218529337994</v>
+        <v>11.50228891006818</v>
       </c>
       <c r="F21">
-        <v>50.75547867769221</v>
+        <v>40.7525645686064</v>
       </c>
       <c r="G21">
-        <v>80.91462815307173</v>
+        <v>53.66702631241848</v>
       </c>
       <c r="H21">
-        <v>20.1649209543664</v>
+        <v>18.63001179693616</v>
       </c>
       <c r="I21">
-        <v>37.91527685087621</v>
+        <v>29.43442880860974</v>
       </c>
       <c r="J21">
-        <v>4.191823615476657</v>
+        <v>9.026073560592756</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>43.96335169626026</v>
+        <v>30.01114484516879</v>
       </c>
       <c r="N21">
-        <v>21.85487036678272</v>
+        <v>18.357921156082</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1.398652787650688</v>
+        <v>3.754279900551251</v>
       </c>
       <c r="D22">
-        <v>6.610878987967532</v>
+        <v>7.937397846179345</v>
       </c>
       <c r="E22">
-        <v>6.673455814678193</v>
+        <v>11.48210057526592</v>
       </c>
       <c r="F22">
-        <v>52.96911193728765</v>
+        <v>41.13504208322757</v>
       </c>
       <c r="G22">
-        <v>84.49012043490055</v>
+        <v>54.59233526418089</v>
       </c>
       <c r="H22">
-        <v>21.04820515849168</v>
+        <v>18.73368121264166</v>
       </c>
       <c r="I22">
-        <v>39.60304171234776</v>
+        <v>29.73871932058088</v>
       </c>
       <c r="J22">
-        <v>4.078031392328104</v>
+        <v>8.995495330949799</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>45.64010435769015</v>
+        <v>30.62416374085361</v>
       </c>
       <c r="N22">
-        <v>22.43387010743924</v>
+        <v>18.56674094020833</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.437633113646976</v>
+        <v>3.761607693190004</v>
       </c>
       <c r="D23">
-        <v>6.540072980117421</v>
+        <v>7.923211844771369</v>
       </c>
       <c r="E23">
-        <v>6.693483759176114</v>
+        <v>11.49278042225479</v>
       </c>
       <c r="F23">
-        <v>51.78812057339988</v>
+        <v>40.93013243160159</v>
       </c>
       <c r="G23">
-        <v>82.58363653902995</v>
+        <v>54.09876961154671</v>
       </c>
       <c r="H23">
-        <v>20.577137862482</v>
+        <v>18.67794593670287</v>
       </c>
       <c r="I23">
-        <v>38.70346541974903</v>
+        <v>29.57585988693591</v>
       </c>
       <c r="J23">
-        <v>4.138852080411427</v>
+        <v>9.011725530609093</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>44.75029123844422</v>
+        <v>30.29840956726343</v>
       </c>
       <c r="N23">
-        <v>22.12623479276363</v>
+        <v>18.4554498076834</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1.580908563342519</v>
+        <v>3.790073378460048</v>
       </c>
       <c r="D24">
-        <v>6.273812454370955</v>
+        <v>7.869022657550404</v>
       </c>
       <c r="E24">
-        <v>6.772192962880275</v>
+        <v>11.5353213681689</v>
       </c>
       <c r="F24">
-        <v>47.29742022851038</v>
+        <v>40.17169975724747</v>
       </c>
       <c r="G24">
-        <v>75.31031021107478</v>
+        <v>52.22504529327918</v>
       </c>
       <c r="H24">
-        <v>18.7820744986244</v>
+        <v>18.47586895294529</v>
       </c>
       <c r="I24">
-        <v>35.26367186842065</v>
+        <v>28.96954859225825</v>
       </c>
       <c r="J24">
-        <v>4.367743336596669</v>
+        <v>9.0751776664482</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>41.26485164695238</v>
+        <v>29.03430081904557</v>
       </c>
       <c r="N24">
-        <v>20.93104629166442</v>
+        <v>18.03078567722316</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.729288419039828</v>
+        <v>3.822323781549076</v>
       </c>
       <c r="D25">
-        <v>5.987863865875143</v>
+        <v>7.809637318149696</v>
       </c>
       <c r="E25">
-        <v>6.863618010509433</v>
+        <v>11.58570900583613</v>
       </c>
       <c r="F25">
-        <v>42.55489165840233</v>
+        <v>39.39513275584255</v>
       </c>
       <c r="G25">
-        <v>67.28433251958887</v>
+        <v>50.20725389691098</v>
       </c>
       <c r="H25">
-        <v>16.97807163282151</v>
+        <v>18.27783102345731</v>
       </c>
       <c r="I25">
-        <v>31.45051254961475</v>
+        <v>28.34124383927394</v>
       </c>
       <c r="J25">
-        <v>4.614142854522905</v>
+        <v>9.147896189643925</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>37.23994943623264</v>
+        <v>27.61246109862799</v>
       </c>
       <c r="N25">
-        <v>19.58101187288201</v>
+        <v>17.56821997421976</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_85/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_85/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.847426542446107</v>
+        <v>1.835755621574786</v>
       </c>
       <c r="D2">
-        <v>7.765152263472157</v>
+        <v>5.776437582735169</v>
       </c>
       <c r="E2">
-        <v>11.62671632518023</v>
+        <v>6.93691926866795</v>
       </c>
       <c r="F2">
-        <v>38.86257489639515</v>
+        <v>39.14498862739358</v>
       </c>
       <c r="G2">
-        <v>48.7376925318184</v>
+        <v>61.22118637164488</v>
       </c>
       <c r="H2">
-        <v>18.14970985497524</v>
+        <v>15.78943428042895</v>
       </c>
       <c r="I2">
-        <v>27.90380081841142</v>
+        <v>28.81504356529858</v>
       </c>
       <c r="J2">
-        <v>9.205165647024531</v>
+        <v>4.797314892830697</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>26.52282352813911</v>
+        <v>34.03230107487715</v>
       </c>
       <c r="N2">
-        <v>17.22607332303565</v>
+        <v>18.53927701432341</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.865299073906837</v>
+        <v>1.907163729195014</v>
       </c>
       <c r="D3">
-        <v>7.734552171093203</v>
+        <v>5.631996930765242</v>
       </c>
       <c r="E3">
-        <v>11.65696302439233</v>
+        <v>6.990486534065443</v>
       </c>
       <c r="F3">
-        <v>38.52773991519107</v>
+        <v>36.80585078056385</v>
       </c>
       <c r="G3">
-        <v>47.75889101831749</v>
+        <v>57.025296083367</v>
       </c>
       <c r="H3">
-        <v>18.07413768497346</v>
+        <v>14.98620242606684</v>
       </c>
       <c r="I3">
-        <v>27.62450732682788</v>
+        <v>27.06428871917089</v>
       </c>
       <c r="J3">
-        <v>9.246327743049051</v>
+        <v>4.923428828038201</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>25.76207592193492</v>
+        <v>31.69952739028675</v>
       </c>
       <c r="N3">
-        <v>16.99444348550463</v>
+        <v>17.80675234117265</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.876701577950428</v>
+        <v>1.95091209863223</v>
       </c>
       <c r="D4">
-        <v>7.715548064743717</v>
+        <v>5.542622050384608</v>
       </c>
       <c r="E4">
-        <v>11.67675194266841</v>
+        <v>7.025340120031781</v>
       </c>
       <c r="F4">
-        <v>38.33549911568038</v>
+        <v>35.35627410230136</v>
       </c>
       <c r="G4">
-        <v>47.16878193939282</v>
+        <v>54.38447710841226</v>
       </c>
       <c r="H4">
-        <v>18.03334448388105</v>
+        <v>14.49447808781504</v>
       </c>
       <c r="I4">
-        <v>27.46193935743205</v>
+        <v>25.97481457695194</v>
       </c>
       <c r="J4">
-        <v>9.272768733370652</v>
+        <v>5.002087142618776</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.28563865001515</v>
+        <v>30.18689467479429</v>
       </c>
       <c r="N4">
-        <v>16.85276405349676</v>
+        <v>17.34526839326246</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.8814565998973</v>
+        <v>1.968751064915975</v>
       </c>
       <c r="D5">
-        <v>7.707750771790247</v>
+        <v>5.506017956351768</v>
       </c>
       <c r="E5">
-        <v>11.68512305768952</v>
+        <v>7.040042648404272</v>
       </c>
       <c r="F5">
-        <v>38.26058302649887</v>
+        <v>34.76249781120928</v>
       </c>
       <c r="G5">
-        <v>46.931412010912</v>
+        <v>53.29217988666953</v>
       </c>
       <c r="H5">
-        <v>18.01813814095561</v>
+        <v>14.29457558228382</v>
       </c>
       <c r="I5">
-        <v>27.39799860744797</v>
+        <v>25.52740048375233</v>
       </c>
       <c r="J5">
-        <v>9.283838294599605</v>
+        <v>5.034481722957212</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.08941096158649</v>
+        <v>29.55003447830615</v>
       </c>
       <c r="N5">
-        <v>16.79522959372392</v>
+        <v>17.15450715309656</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.882252733083782</v>
+        <v>1.971714847748766</v>
       </c>
       <c r="D6">
-        <v>7.706452873784951</v>
+        <v>5.499928621945175</v>
       </c>
       <c r="E6">
-        <v>11.68653164050832</v>
+        <v>7.042514312316432</v>
       </c>
       <c r="F6">
-        <v>38.24835183691386</v>
+        <v>34.6637287539582</v>
       </c>
       <c r="G6">
-        <v>46.89219510602556</v>
+        <v>53.10983802295684</v>
       </c>
       <c r="H6">
-        <v>18.01569889624313</v>
+        <v>14.26141508999047</v>
       </c>
       <c r="I6">
-        <v>27.38752239544769</v>
+        <v>25.45290819548276</v>
       </c>
       <c r="J6">
-        <v>9.285694215207968</v>
+        <v>5.039882299198388</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.05671044475903</v>
+        <v>29.4430420020111</v>
       </c>
       <c r="N6">
-        <v>16.78569007922955</v>
+        <v>17.1226758527314</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.876765266085967</v>
+        <v>1.951152592010659</v>
       </c>
       <c r="D7">
-        <v>7.715443120573864</v>
+        <v>5.542129145615273</v>
       </c>
       <c r="E7">
-        <v>11.67686359438621</v>
+        <v>7.025536374176037</v>
       </c>
       <c r="F7">
-        <v>38.33447482670859</v>
+        <v>35.34827810951766</v>
       </c>
       <c r="G7">
-        <v>47.16556763173901</v>
+        <v>54.36981103844192</v>
       </c>
       <c r="H7">
-        <v>18.03313365994642</v>
+        <v>14.49178000843194</v>
       </c>
       <c r="I7">
-        <v>27.4610676084716</v>
+        <v>25.9687941750034</v>
       </c>
       <c r="J7">
-        <v>9.272916826855578</v>
+        <v>5.002522606552874</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.28300028622513</v>
+        <v>30.17838888526423</v>
       </c>
       <c r="N7">
-        <v>16.85198722390181</v>
+        <v>17.34270632065148</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.85350038473509</v>
+        <v>1.860419765298571</v>
       </c>
       <c r="D8">
-        <v>7.7546468235126</v>
+        <v>5.726769200929377</v>
       </c>
       <c r="E8">
-        <v>11.63689325325453</v>
+        <v>6.954985509675428</v>
       </c>
       <c r="F8">
-        <v>38.74439569356271</v>
+        <v>38.34134000125899</v>
       </c>
       <c r="G8">
-        <v>48.39816583971859</v>
+        <v>59.78779349077187</v>
       </c>
       <c r="H8">
-        <v>18.12249334538638</v>
+        <v>15.5122262122401</v>
       </c>
       <c r="I8">
-        <v>27.80568941791277</v>
+        <v>28.21447261642967</v>
       </c>
       <c r="J8">
-        <v>9.219116741396929</v>
+        <v>4.840565817022219</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>26.26261252018271</v>
+        <v>33.24446544315756</v>
       </c>
       <c r="N8">
-        <v>17.14613354065639</v>
+        <v>18.28926839745245</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.81125122707112</v>
+        <v>1.679887799794028</v>
       </c>
       <c r="D9">
-        <v>7.829762322439189</v>
+        <v>6.084219231210266</v>
       </c>
       <c r="E9">
-        <v>11.56813135813041</v>
+        <v>6.831914511240909</v>
       </c>
       <c r="F9">
-        <v>39.65085512645666</v>
+        <v>44.10214546088917</v>
       </c>
       <c r="G9">
-        <v>50.88536236269148</v>
+        <v>70.01701752000497</v>
       </c>
       <c r="H9">
-        <v>18.34182554825907</v>
+        <v>17.52315499072352</v>
       </c>
       <c r="I9">
-        <v>28.54918068861758</v>
+        <v>32.75118067396323</v>
       </c>
       <c r="J9">
-        <v>9.122825203310796</v>
+        <v>4.531001863857425</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>28.0985840006099</v>
+        <v>38.63270000279178</v>
       </c>
       <c r="N9">
-        <v>17.7244371696016</v>
+        <v>20.04354628373038</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.782226778772111</v>
+        <v>1.542643631495011</v>
       </c>
       <c r="D10">
-        <v>7.883806399295958</v>
+        <v>6.345863206565496</v>
       </c>
       <c r="E10">
-        <v>11.52342228563093</v>
+        <v>6.750335497234189</v>
       </c>
       <c r="F10">
-        <v>40.37446068086445</v>
+        <v>48.52073076046802</v>
       </c>
       <c r="G10">
-        <v>52.73395321086316</v>
+        <v>77.29573168973195</v>
       </c>
       <c r="H10">
-        <v>18.52917757689767</v>
+        <v>19.27172108890364</v>
       </c>
       <c r="I10">
-        <v>29.13224124394181</v>
+        <v>36.20396958716173</v>
       </c>
       <c r="J10">
-        <v>9.05762114929948</v>
+        <v>4.305772935041869</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>29.38230950124097</v>
+        <v>42.23090932210311</v>
       </c>
       <c r="N10">
-        <v>18.14650806683618</v>
+        <v>21.26040437625042</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.769451782482995</v>
+        <v>1.478371710100902</v>
       </c>
       <c r="D11">
-        <v>7.908129411665392</v>
+        <v>6.465335832473731</v>
       </c>
       <c r="E11">
-        <v>11.5043330132581</v>
+        <v>6.715019733663513</v>
       </c>
       <c r="F11">
-        <v>40.71499308633344</v>
+        <v>50.53573600836759</v>
       </c>
       <c r="G11">
-        <v>53.5751685926453</v>
+        <v>80.55921595293832</v>
       </c>
       <c r="H11">
-        <v>18.61991492488005</v>
+        <v>20.07716203164728</v>
       </c>
       <c r="I11">
-        <v>29.4044655778783</v>
+        <v>37.7473503918532</v>
       </c>
       <c r="J11">
-        <v>9.029145541787534</v>
+        <v>4.203070176759096</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>29.94973545531434</v>
+        <v>43.79480272638917</v>
       </c>
       <c r="N11">
-        <v>18.33714821247215</v>
+        <v>21.79684690922309</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.764675142039299</v>
+        <v>1.453683269500994</v>
       </c>
       <c r="D12">
-        <v>7.917300886550517</v>
+        <v>6.510718810516902</v>
       </c>
       <c r="E12">
-        <v>11.49728311301275</v>
+        <v>6.70189295316661</v>
       </c>
       <c r="F12">
-        <v>40.84547289195646</v>
+        <v>51.2969514893425</v>
       </c>
       <c r="G12">
-        <v>53.8934099665806</v>
+        <v>81.79002493416972</v>
       </c>
       <c r="H12">
-        <v>18.65504865922889</v>
+        <v>20.38110836085679</v>
       </c>
       <c r="I12">
-        <v>29.50846567063181</v>
+        <v>38.32876203372535</v>
       </c>
       <c r="J12">
-        <v>9.018531913501906</v>
+        <v>4.164072253005848</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>30.16204878902438</v>
+        <v>44.37703695131962</v>
       </c>
       <c r="N12">
-        <v>18.40908163883411</v>
+        <v>21.99743316878039</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.76570117521267</v>
+        <v>1.459017475960328</v>
       </c>
       <c r="D13">
-        <v>7.915327408649891</v>
+        <v>6.500937026903158</v>
       </c>
       <c r="E13">
-        <v>11.49879349648504</v>
+        <v>6.704709274317342</v>
       </c>
       <c r="F13">
-        <v>40.81730551404226</v>
+        <v>51.13307070121056</v>
       </c>
       <c r="G13">
-        <v>53.82489009671478</v>
+        <v>81.52513630933974</v>
       </c>
       <c r="H13">
-        <v>18.64744789851304</v>
+        <v>20.31568673256024</v>
       </c>
       <c r="I13">
-        <v>29.4860281585482</v>
+        <v>38.20366312360925</v>
       </c>
       <c r="J13">
-        <v>9.020810228475607</v>
+        <v>4.172477163118027</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>30.11643976601178</v>
+        <v>44.25207710240296</v>
       </c>
       <c r="N13">
-        <v>18.39360192053931</v>
+        <v>21.95434806711598</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.769057587002664</v>
+        <v>1.476348141744718</v>
       </c>
       <c r="D14">
-        <v>7.908884746879753</v>
+        <v>6.469066166521076</v>
       </c>
       <c r="E14">
-        <v>11.50374943519076</v>
+        <v>6.713934915746969</v>
       </c>
       <c r="F14">
-        <v>40.72569774242022</v>
+        <v>50.59839092083307</v>
       </c>
       <c r="G14">
-        <v>53.60135862686697</v>
+        <v>80.66056337771059</v>
       </c>
       <c r="H14">
-        <v>18.62279001081592</v>
+        <v>20.10218609053542</v>
       </c>
       <c r="I14">
-        <v>29.41300391785655</v>
+        <v>37.79523842618447</v>
       </c>
       <c r="J14">
-        <v>9.02826896206612</v>
+        <v>4.199864383029791</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>29.96725483992995</v>
+        <v>43.84290022817037</v>
       </c>
       <c r="N14">
-        <v>18.34307173396384</v>
+        <v>21.81340086292788</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.771121408025921</v>
+        <v>1.486915268707404</v>
       </c>
       <c r="D15">
-        <v>7.904933292195881</v>
+        <v>6.449565399475123</v>
       </c>
       <c r="E15">
-        <v>11.50680835028351</v>
+        <v>6.719617626835328</v>
       </c>
       <c r="F15">
-        <v>40.66978106970275</v>
+        <v>50.27068396717349</v>
       </c>
       <c r="G15">
-        <v>53.46438888080574</v>
+        <v>80.13039871320117</v>
       </c>
       <c r="H15">
-        <v>18.6077864829615</v>
+        <v>19.97128836547197</v>
       </c>
       <c r="I15">
-        <v>29.36839087939</v>
+        <v>37.54470145280348</v>
       </c>
       <c r="J15">
-        <v>9.03285968903916</v>
+        <v>4.216623637209355</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>29.87553655921888</v>
+        <v>43.5909847545897</v>
       </c>
       <c r="N15">
-        <v>18.31208515198397</v>
+        <v>21.72673186746714</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.783070221332039</v>
+        <v>1.546799987688796</v>
       </c>
       <c r="D16">
-        <v>7.882211438394532</v>
+        <v>6.338070495715462</v>
       </c>
       <c r="E16">
-        <v>11.5246948790277</v>
+        <v>6.752678624909003</v>
       </c>
       <c r="F16">
-        <v>40.35242570115866</v>
+        <v>48.38872455178959</v>
       </c>
       <c r="G16">
-        <v>52.67895325069766</v>
+        <v>77.08164468805371</v>
       </c>
       <c r="H16">
-        <v>18.52335697924239</v>
+        <v>19.21890892962802</v>
       </c>
       <c r="I16">
-        <v>29.11458367338309</v>
+        <v>36.10262844451737</v>
       </c>
       <c r="J16">
-        <v>9.059505870679772</v>
+        <v>4.312474034969252</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>29.34487818282042</v>
+        <v>42.12727915406529</v>
       </c>
       <c r="N16">
-        <v>18.13401652821288</v>
+        <v>21.22499379258754</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.790509703253218</v>
+        <v>1.583010249031636</v>
       </c>
       <c r="D17">
-        <v>7.868204200484477</v>
+        <v>6.269835021218205</v>
       </c>
       <c r="E17">
-        <v>11.53598702334394</v>
+        <v>6.773412383921462</v>
       </c>
       <c r="F17">
-        <v>40.16057381557708</v>
+        <v>47.22970452513934</v>
       </c>
       <c r="G17">
-        <v>52.19693248455497</v>
+        <v>75.20031016316612</v>
       </c>
       <c r="H17">
-        <v>18.4729605754283</v>
+        <v>18.75495478349164</v>
       </c>
       <c r="I17">
-        <v>28.96060712512386</v>
+        <v>35.21154428404193</v>
       </c>
       <c r="J17">
-        <v>9.076155442138194</v>
+        <v>4.371165195559771</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>29.01496507623512</v>
+        <v>41.21099790844782</v>
       </c>
       <c r="N17">
-        <v>18.0243835574159</v>
+        <v>20.91273718199583</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.794829054448984</v>
+        <v>1.603670317488703</v>
       </c>
       <c r="D18">
-        <v>7.860123043624467</v>
+        <v>6.230624349202741</v>
       </c>
       <c r="E18">
-        <v>11.54259958769612</v>
+        <v>6.785507614272351</v>
       </c>
       <c r="F18">
-        <v>40.05130159451268</v>
+        <v>46.56108135238794</v>
       </c>
       <c r="G18">
-        <v>51.91973334395085</v>
+        <v>74.11359698745194</v>
       </c>
       <c r="H18">
-        <v>18.44449376281384</v>
+        <v>18.4870841428</v>
       </c>
       <c r="I18">
-        <v>28.87270706201546</v>
+        <v>34.69638136625544</v>
       </c>
       <c r="J18">
-        <v>9.085843536274671</v>
+        <v>4.404904638500274</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>28.82365979866304</v>
+        <v>40.67707578231728</v>
       </c>
       <c r="N18">
-        <v>17.96120095217229</v>
+        <v>20.73152860464357</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.796298463050982</v>
+        <v>1.610639116975758</v>
       </c>
       <c r="D19">
-        <v>7.85738272818694</v>
+        <v>6.217352579187635</v>
       </c>
       <c r="E19">
-        <v>11.54485871516476</v>
+        <v>6.789632332184449</v>
       </c>
       <c r="F19">
-        <v>40.01449186234611</v>
+        <v>46.33432760870079</v>
       </c>
       <c r="G19">
-        <v>51.82589736957328</v>
+        <v>73.74481196261868</v>
       </c>
       <c r="H19">
-        <v>18.43494522317988</v>
+        <v>18.39620138077505</v>
       </c>
       <c r="I19">
-        <v>28.84306223311318</v>
+        <v>34.52147940746168</v>
       </c>
       <c r="J19">
-        <v>9.089142976274717</v>
+        <v>4.416327103549404</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>28.75862700736965</v>
+        <v>40.49509932132617</v>
       </c>
       <c r="N19">
-        <v>17.93978892834078</v>
+        <v>20.66990174403564</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.789713585329538</v>
+        <v>1.579173470983604</v>
       </c>
       <c r="D20">
-        <v>7.869697847703719</v>
+        <v>6.27709453275256</v>
       </c>
       <c r="E20">
-        <v>11.53477278791002</v>
+        <v>6.771187754069581</v>
       </c>
       <c r="F20">
-        <v>40.18088618167891</v>
+        <v>47.35328273591958</v>
       </c>
       <c r="G20">
-        <v>52.24824219326171</v>
+        <v>75.40104752724359</v>
       </c>
       <c r="H20">
-        <v>18.47827168574768</v>
+        <v>18.80444582357011</v>
       </c>
       <c r="I20">
-        <v>28.97693020376522</v>
+        <v>35.30666855936113</v>
       </c>
       <c r="J20">
-        <v>9.074371514069512</v>
+        <v>4.364919780802213</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>29.05024645523181</v>
+        <v>41.30924843259589</v>
       </c>
       <c r="N20">
-        <v>18.03606752804177</v>
+        <v>20.94614448061018</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.768070077704312</v>
+        <v>1.471267969369869</v>
       </c>
       <c r="D21">
-        <v>7.910778186256096</v>
+        <v>6.478422853552197</v>
       </c>
       <c r="E21">
-        <v>11.50228891006818</v>
+        <v>6.711218529337954</v>
       </c>
       <c r="F21">
-        <v>40.7525645686064</v>
+        <v>50.75547867769221</v>
       </c>
       <c r="G21">
-        <v>53.66702631241848</v>
+        <v>80.91462815307176</v>
       </c>
       <c r="H21">
-        <v>18.63001179693616</v>
+        <v>20.16492095436641</v>
       </c>
       <c r="I21">
-        <v>29.43442880860974</v>
+        <v>37.91527685087619</v>
       </c>
       <c r="J21">
-        <v>9.026073560592756</v>
+        <v>4.191823615476624</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>30.01114484516879</v>
+        <v>43.9633516962603</v>
       </c>
       <c r="N21">
-        <v>18.357921156082</v>
+        <v>21.85487036678272</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.754279900551251</v>
+        <v>1.398652787650553</v>
       </c>
       <c r="D22">
-        <v>7.937397846179345</v>
+        <v>6.61087898796753</v>
       </c>
       <c r="E22">
-        <v>11.48210057526592</v>
+        <v>6.673455814678126</v>
       </c>
       <c r="F22">
-        <v>41.13504208322757</v>
+        <v>52.96911193728739</v>
       </c>
       <c r="G22">
-        <v>54.59233526418089</v>
+        <v>84.49012043490004</v>
       </c>
       <c r="H22">
-        <v>18.73368121264166</v>
+        <v>21.04820515849159</v>
       </c>
       <c r="I22">
-        <v>29.73871932058088</v>
+        <v>39.60304171234753</v>
       </c>
       <c r="J22">
-        <v>8.995495330949799</v>
+        <v>4.078031392328036</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>30.62416374085361</v>
+        <v>45.64010435769005</v>
       </c>
       <c r="N22">
-        <v>18.56674094020833</v>
+        <v>22.43387010743925</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.761607693190004</v>
+        <v>1.43763311364684</v>
       </c>
       <c r="D23">
-        <v>7.923211844771369</v>
+        <v>6.540072980117412</v>
       </c>
       <c r="E23">
-        <v>11.49278042225479</v>
+        <v>6.693483759176082</v>
       </c>
       <c r="F23">
-        <v>40.93013243160159</v>
+        <v>51.78812057339991</v>
       </c>
       <c r="G23">
-        <v>54.09876961154671</v>
+        <v>82.58363653903008</v>
       </c>
       <c r="H23">
-        <v>18.67794593670287</v>
+        <v>20.577137862482</v>
       </c>
       <c r="I23">
-        <v>29.57585988693591</v>
+        <v>38.70346541974904</v>
       </c>
       <c r="J23">
-        <v>9.011725530609093</v>
+        <v>4.138852080411427</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>30.29840956726343</v>
+        <v>44.75029123844425</v>
       </c>
       <c r="N23">
-        <v>18.4554498076834</v>
+        <v>22.12623479276364</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.790073378460048</v>
+        <v>1.580908563342383</v>
       </c>
       <c r="D24">
-        <v>7.869022657550404</v>
+        <v>6.273812454370955</v>
       </c>
       <c r="E24">
-        <v>11.5353213681689</v>
+        <v>6.772192962880344</v>
       </c>
       <c r="F24">
-        <v>40.17169975724747</v>
+        <v>47.2974202285104</v>
       </c>
       <c r="G24">
-        <v>52.22504529327918</v>
+        <v>75.31031021107478</v>
       </c>
       <c r="H24">
-        <v>18.47586895294529</v>
+        <v>18.78207449862443</v>
       </c>
       <c r="I24">
-        <v>28.96954859225825</v>
+        <v>35.26367186842069</v>
       </c>
       <c r="J24">
-        <v>9.0751776664482</v>
+        <v>4.367743336596669</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>29.03430081904557</v>
+        <v>41.26485164695238</v>
       </c>
       <c r="N24">
-        <v>18.03078567722316</v>
+        <v>20.93104629166439</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.822323781549076</v>
+        <v>1.729288419039691</v>
       </c>
       <c r="D25">
-        <v>7.809637318149696</v>
+        <v>5.98786386587496</v>
       </c>
       <c r="E25">
-        <v>11.58570900583613</v>
+        <v>6.86361801050931</v>
       </c>
       <c r="F25">
-        <v>39.39513275584255</v>
+        <v>42.55489165840237</v>
       </c>
       <c r="G25">
-        <v>50.20725389691098</v>
+        <v>67.2843325195889</v>
       </c>
       <c r="H25">
-        <v>18.27783102345731</v>
+        <v>16.97807163282154</v>
       </c>
       <c r="I25">
-        <v>28.34124383927394</v>
+        <v>31.45051254961476</v>
       </c>
       <c r="J25">
-        <v>9.147896189643925</v>
+        <v>4.61414285452287</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>27.61246109862799</v>
+        <v>37.23994943623267</v>
       </c>
       <c r="N25">
-        <v>17.56821997421976</v>
+        <v>19.58101187288201</v>
       </c>
       <c r="O25">
         <v>0</v>
